--- a/Letter Functions.xlsx
+++ b/Letter Functions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmiller_olmcmd\Documents\2024-12-11NameWriter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmiller_olmcmd\Documents\2024-12-11NameWriter\NameWriter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Letter</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>https://www.tynker.com/play/letters/675994d7d164ad06e677eac9-206814XlWGbo.mGDar20qmgVoVRd0k</t>
+  </si>
+  <si>
+    <t>https://www.tynker.com/play/letters/675994d7d164ad06e677eac9-501987Xhz3YxIoaXXF2B,9kMJVbi0k</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,58 +532,70 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
